--- a/plantilla/plantilla02.xlsx
+++ b/plantilla/plantilla02.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="18915" windowHeight="11820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9660" windowHeight="5490"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$8:$J$8</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Relación de Documentos Recibidos y Emitidos</t>
   </si>
@@ -24,12 +27,15 @@
     <t>Fecha:</t>
   </si>
   <si>
+    <t>Usuario:</t>
+  </si>
+  <si>
+    <t>Tipo:</t>
+  </si>
+  <si>
     <t>Gerencia:</t>
   </si>
   <si>
-    <t>Gerencia Central de Planeamiento y Sistemas</t>
-  </si>
-  <si>
     <t>N°</t>
   </si>
   <si>
@@ -57,101 +63,41 @@
     <t>Fecha de atención</t>
   </si>
   <si>
-    <t>Oficio</t>
-  </si>
-  <si>
-    <t>Informe</t>
-  </si>
-  <si>
-    <t>001-2016-SA</t>
-  </si>
-  <si>
-    <t>005-2015-SEAF</t>
-  </si>
-  <si>
-    <t>GERENCIA CENTRAL DE PLANEAMIENTO Y SISTEMAS</t>
-  </si>
-  <si>
-    <t>GERENCIA CENTRAL DE ADMINISTRACIÓN Y FINANZAS</t>
-  </si>
-  <si>
-    <t>AC-001-2451</t>
-  </si>
-  <si>
-    <t>AC-001-2452</t>
-  </si>
-  <si>
-    <t>AC-001-2453</t>
-  </si>
-  <si>
-    <t>AC-001-2454</t>
-  </si>
-  <si>
-    <t>AC-001-2455</t>
-  </si>
-  <si>
-    <t>AC-001-2456</t>
-  </si>
-  <si>
-    <t>AC-001-2457</t>
-  </si>
-  <si>
-    <t>AC-001-2458</t>
-  </si>
-  <si>
-    <t>IMPORTACIONES ULTRA S.A.</t>
-  </si>
-  <si>
-    <t>ASUNTO 01</t>
-  </si>
-  <si>
-    <t>ASUNTO 02</t>
-  </si>
-  <si>
-    <t>ASUNTO 03</t>
-  </si>
-  <si>
-    <t>ASUNTO 04</t>
-  </si>
-  <si>
-    <t>ASUNTO 05</t>
-  </si>
-  <si>
-    <t>ASUNTO 06</t>
-  </si>
-  <si>
-    <t>ASUNTO 07</t>
-  </si>
-  <si>
-    <t>ASUNTO 08</t>
+    <t>Estado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="000000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="20"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -163,12 +109,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="10"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -178,56 +124,83 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color indexed="8"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -235,6 +208,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00D6E3BC"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -530,341 +571,170 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="A17:G18"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.140625" customWidth="1"/>
-    <col min="7" max="7" width="36.42578125" customWidth="1"/>
-    <col min="8" max="8" width="32.7109375" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="37.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="32.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" style="13" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="1" customWidth="1"/>
+    <col min="11" max="256" width="9.140625" style="1" customWidth="1"/>
+    <col min="257" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="9" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+    </row>
+    <row r="2" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="12">
-        <v>42402</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="E6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="F8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="G8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="H8" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>1</v>
-      </c>
-      <c r="B8" s="11" t="s">
+      <c r="I8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="8">
-        <v>42401</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="8">
-        <v>42401</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>2</v>
-      </c>
-      <c r="B9" s="11" t="s">
+      <c r="J8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="8">
-        <v>42401</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="8">
-        <v>42401</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>3</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="8">
-        <v>42411</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="8">
-        <v>42411</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>4</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="8">
-        <v>42440</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="8">
-        <v>42440</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>5</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="8">
-        <v>42401</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="8">
-        <v>42401</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>6</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="8">
-        <v>42440</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="8">
-        <v>42440</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>7</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="8">
-        <v>42401</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="8">
-        <v>42401</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>8</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="8">
-        <v>42401</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="8">
-        <v>42401</v>
-      </c>
+    </row>
+    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="1"/>
+      <c r="E10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="1"/>
+      <c r="E11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="1"/>
+      <c r="E12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="1"/>
+      <c r="E13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="1"/>
+      <c r="E14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="1"/>
+      <c r="E15" s="5"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="1"/>
+      <c r="E16" s="5"/>
+      <c r="I16" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <autoFilter ref="A8:J8"/>
+  <mergeCells count="5">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
-    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
@@ -872,11 +742,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showRuler="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="256" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
@@ -884,10 +760,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showRuler="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="256" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/plantilla/plantilla02.xlsx
+++ b/plantilla/plantilla02.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9660" windowHeight="5490"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="9660" windowHeight="5430"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$8:$J$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$8:$K$8</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Relación de Documentos Recibidos y Emitidos</t>
   </si>
@@ -27,43 +27,46 @@
     <t>Fecha:</t>
   </si>
   <si>
+    <t>Tipo:</t>
+  </si>
+  <si>
+    <t>Gerencia:</t>
+  </si>
+  <si>
+    <t>N°</t>
+  </si>
+  <si>
+    <t>Tipo de Documento</t>
+  </si>
+  <si>
+    <t>Fecha de Recepción</t>
+  </si>
+  <si>
+    <t>Asunto</t>
+  </si>
+  <si>
+    <t>Derivado a</t>
+  </si>
+  <si>
+    <t>Documento de respuesta</t>
+  </si>
+  <si>
+    <t>Fecha de atención</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Hoja de Trabajo</t>
+  </si>
+  <si>
+    <t>N° Documento</t>
+  </si>
+  <si>
+    <t>Empresa/Gerencia</t>
+  </si>
+  <si>
     <t>Usuario:</t>
-  </si>
-  <si>
-    <t>Tipo:</t>
-  </si>
-  <si>
-    <t>Gerencia:</t>
-  </si>
-  <si>
-    <t>N°</t>
-  </si>
-  <si>
-    <t>Tipo de Documento</t>
-  </si>
-  <si>
-    <t>N° de Documento</t>
-  </si>
-  <si>
-    <t>Gerencia</t>
-  </si>
-  <si>
-    <t>Fecha de Recepción</t>
-  </si>
-  <si>
-    <t>Asunto</t>
-  </si>
-  <si>
-    <t>Derivado a</t>
-  </si>
-  <si>
-    <t>Documento de respuesta</t>
-  </si>
-  <si>
-    <t>Fecha de atención</t>
-  </si>
-  <si>
-    <t>Estado</t>
   </si>
 </sst>
 </file>
@@ -150,29 +153,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -193,6 +187,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -201,6 +207,9 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -571,166 +580,646 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K500"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="37.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="32.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" style="13" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" style="1" customWidth="1"/>
-    <col min="11" max="256" width="9.140625" style="1" customWidth="1"/>
-    <col min="257" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39" style="14" customWidth="1"/>
+    <col min="7" max="7" width="37.140625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="47" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" style="1" customWidth="1"/>
+    <col min="12" max="257" width="9.140625" style="1" customWidth="1"/>
+    <col min="258" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="16" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+    </row>
+    <row r="2" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="E4" s="3" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="E6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="B8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="E8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="H8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="I8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="J8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="14"/>
+    </row>
+    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="7"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="1"/>
-      <c r="E10" s="5"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="1"/>
-      <c r="E11" s="5"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="1"/>
-      <c r="E12" s="5"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="1"/>
-      <c r="E13" s="5"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="1"/>
-      <c r="E14" s="5"/>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="1"/>
-      <c r="E15" s="5"/>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="1"/>
-      <c r="E16" s="5"/>
-      <c r="I16" s="5"/>
-    </row>
+      <c r="J9" s="8"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="A8:J8"/>
+  <autoFilter ref="A8:K8"/>
   <mergeCells count="5">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/plantilla/plantilla02.xlsx
+++ b/plantilla/plantilla02.xlsx
@@ -153,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -197,6 +197,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -209,7 +215,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -583,7 +589,7 @@
   <dimension ref="A1:K500"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -592,7 +598,7 @@
     <col min="2" max="2" width="18.85546875" style="12" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39" style="14" customWidth="1"/>
     <col min="7" max="7" width="37.140625" style="14" customWidth="1"/>
     <col min="8" max="8" width="47" style="1" customWidth="1"/>
@@ -604,39 +610,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20" t="s">
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22" t="s">
         <v>15</v>
       </c>
     </row>
@@ -645,17 +651,17 @@
         <v>2</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="4"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
       <c r="J6" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -698,7 +704,7 @@
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="7"/>
